--- a/Datasets/english_questions.xlsx
+++ b/Datasets/english_questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\minor-project\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{396EEF9D-17FA-41F4-9DE7-6047237BDDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D0578D-A25F-4C1A-A5C8-EA81B4C06435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="english_questions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="246">
   <si>
     <t>Question</t>
   </si>
@@ -61,366 +61,84 @@
     <t>Which of the following words is a determiner?</t>
   </si>
   <si>
-    <t>a) Run</t>
-  </si>
-  <si>
-    <t>b) The</t>
-  </si>
-  <si>
-    <t>c) Beautiful</t>
-  </si>
-  <si>
-    <t>d) Quickly</t>
-  </si>
-  <si>
     <t>Identify the sentence with the correct subject-verb agreement.</t>
   </si>
   <si>
-    <t>a) The dogs is barking loudly.</t>
-  </si>
-  <si>
-    <t>b) The dog are barking loudly.</t>
-  </si>
-  <si>
-    <t>c) The dogs are barking loudly.</t>
-  </si>
-  <si>
-    <t>d) The dog is barking loudly.</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
     <t>What is the correct transformation of the sentence 'He said, 'I am going to the market'' into reported speech?</t>
   </si>
   <si>
-    <t>a) He says that he is going to the market.</t>
-  </si>
-  <si>
-    <t>b) He says that he was going to the market.</t>
-  </si>
-  <si>
-    <t>c) He says that he will go to the market.</t>
-  </si>
-  <si>
-    <t>d) He said that he is going to the market.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Choose the appropriate modal verb for the following sentence: 'You __ finish your homework before you watch TV.' </t>
   </si>
   <si>
-    <t>a) must</t>
-  </si>
-  <si>
-    <t>b) can</t>
-  </si>
-  <si>
-    <t>c) will</t>
-  </si>
-  <si>
-    <t>d) do</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>Which of the following is the correct verb form for the sentence 'She _____ a book every day' if the action is happening regularly?</t>
   </si>
   <si>
-    <t>a) reads</t>
-  </si>
-  <si>
-    <t>b) read</t>
-  </si>
-  <si>
-    <t>c) is reading</t>
-  </si>
-  <si>
-    <t>d) has read</t>
-  </si>
-  <si>
     <t>Identify the sentence that is grammatically correct.</t>
   </si>
   <si>
-    <t>a) She don't like ice cream.</t>
-  </si>
-  <si>
-    <t>b) They doesn't know the answer.</t>
-  </si>
-  <si>
-    <t>c) I am not understanding this concept.</t>
-  </si>
-  <si>
-    <t>d) He plays football every evening.</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
     <t>Choose the correct reported speech version of the sentence 'She said, 'Can you help me?''</t>
   </si>
   <si>
-    <t>a) She asked if he could help her.</t>
-  </si>
-  <si>
-    <t>b) She asked if he can help her.</t>
-  </si>
-  <si>
-    <t>c) She asked if he will help her.</t>
-  </si>
-  <si>
-    <t>d) She asked if he would help her.</t>
-  </si>
-  <si>
     <t>What is the appropriate determiner for the sentence '____ students in the class were attentive'?</t>
   </si>
   <si>
-    <t>a) Much</t>
-  </si>
-  <si>
-    <t>b) Any</t>
-  </si>
-  <si>
-    <t>c) Some</t>
-  </si>
-  <si>
-    <t>d) All</t>
-  </si>
-  <si>
     <t>Choose the correct form of the verb for the sentence 'He _____ his bike yesterday.'</t>
   </si>
   <si>
-    <t>a) rides</t>
-  </si>
-  <si>
-    <t>b) is riding</t>
-  </si>
-  <si>
-    <t>c) rode</t>
-  </si>
-  <si>
-    <t>d) has ridden</t>
-  </si>
-  <si>
     <t>What is the correct reported speech version of the sentence 'He said, 'I will come tomorrow''?</t>
   </si>
   <si>
-    <t>a) He says that he will come tomorrow.</t>
-  </si>
-  <si>
-    <t>b) He says that he would come tomorrow.</t>
-  </si>
-  <si>
-    <t>c) He said that he will come tomorrow.</t>
-  </si>
-  <si>
-    <t>d) He said that he would come tomorrow.</t>
-  </si>
-  <si>
     <t>Which sentence has the correct punctuation?</t>
   </si>
   <si>
-    <t>a) The cat is brown its sleeping.</t>
-  </si>
-  <si>
-    <t>b) The cat is brown, it's sleeping.</t>
-  </si>
-  <si>
-    <t>c) The cat is brown its sleeping.</t>
-  </si>
-  <si>
-    <t>d) The cat is brown it's sleeping.</t>
-  </si>
-  <si>
     <t>What is the appropriate determiner for the sentence '____ milk is left in the bottle'?</t>
   </si>
   <si>
-    <t>a) Few</t>
-  </si>
-  <si>
-    <t>b) Much</t>
-  </si>
-  <si>
-    <t>c) Many</t>
-  </si>
-  <si>
-    <t>d) Some</t>
-  </si>
-  <si>
     <t>Choose the correct modal verb for the sentence 'You ____ come to the party if you want.'</t>
   </si>
   <si>
-    <t>a) might</t>
-  </si>
-  <si>
-    <t>b) should</t>
-  </si>
-  <si>
-    <t>c) need</t>
-  </si>
-  <si>
-    <t>d) would</t>
-  </si>
-  <si>
     <t>Identify the sentence with the correct use of reported speech.</t>
   </si>
   <si>
-    <t>a) He said, 'I will help you.'</t>
-  </si>
-  <si>
-    <t>b) He said, 'He will help you.'</t>
-  </si>
-  <si>
-    <t>c) He said, 'He would help you.'</t>
-  </si>
-  <si>
-    <t>d) He said, 'He helps you.'</t>
-  </si>
-  <si>
     <t>What is the appropriate determiner for the sentence '____ people attended the event'?</t>
   </si>
   <si>
-    <t>a) Several</t>
-  </si>
-  <si>
-    <t>c) Little</t>
-  </si>
-  <si>
     <t>Choose the correct transformation of the sentence 'She said to me, 'Please help me with this' into reported speech.</t>
   </si>
   <si>
-    <t>a) She told me to help her with that.</t>
-  </si>
-  <si>
-    <t>b) She told me to help her with this.</t>
-  </si>
-  <si>
-    <t>c) She asked me to help her with that.</t>
-  </si>
-  <si>
-    <t>d) She asked me to help her with this.</t>
-  </si>
-  <si>
     <t>What is the appropriate determiner for the sentence '____ information was provided about the incident'?</t>
   </si>
   <si>
-    <t>a) Many</t>
-  </si>
-  <si>
-    <t>b) Few</t>
-  </si>
-  <si>
-    <t>d) Much</t>
-  </si>
-  <si>
     <t>Choose the correct form of the verb for the sentence 'They ____ to the beach last summer.'</t>
   </si>
   <si>
-    <t>a) go</t>
-  </si>
-  <si>
-    <t>b) went</t>
-  </si>
-  <si>
-    <t>c) goes</t>
-  </si>
-  <si>
-    <t>d) is going</t>
-  </si>
-  <si>
     <t>Which of the following sentences is a command?</t>
   </si>
   <si>
-    <t>a) Will you come with me?</t>
-  </si>
-  <si>
-    <t>b) Please help me.</t>
-  </si>
-  <si>
-    <t>c) Don't touch that.</t>
-  </si>
-  <si>
-    <t>d) Are you going home?</t>
-  </si>
-  <si>
     <t>What is the correct transformation of the sentence 'He said, 'I have finished my work'' into reported speech?</t>
   </si>
   <si>
-    <t>a) He says that he has finished his work.</t>
-  </si>
-  <si>
-    <t>b) He said that he had finished his work.</t>
-  </si>
-  <si>
-    <t>c) He says that he had finished his work.</t>
-  </si>
-  <si>
-    <t>d) He said that he has finished his work.</t>
-  </si>
-  <si>
     <t>Choose the correct form of the verb for the sentence 'She _____ her homework every day' if the action is happening regularly.</t>
   </si>
   <si>
-    <t>a) does</t>
-  </si>
-  <si>
-    <t>b) did</t>
-  </si>
-  <si>
-    <t>c) do</t>
-  </si>
-  <si>
-    <t>d) is doing</t>
-  </si>
-  <si>
     <t>Identify the sentence that has the correct subject-verb agreement.</t>
   </si>
   <si>
-    <t>a) The birds is flying in the sky.</t>
-  </si>
-  <si>
-    <t>b) The bird is fly in the sky.</t>
-  </si>
-  <si>
-    <t>c) The birds are flying in the sky.</t>
-  </si>
-  <si>
-    <t>d) The bird are fly in the sky.</t>
-  </si>
-  <si>
     <t>What is the appropriate determiner for the sentence ____ sugar is needed for the recipe?</t>
   </si>
   <si>
-    <t>b) Some</t>
-  </si>
-  <si>
-    <t>c) Any</t>
-  </si>
-  <si>
     <t>Choose the correct modal verb for the sentence 'You ____ do your best in the exam.'</t>
   </si>
   <si>
-    <t>a) will</t>
-  </si>
-  <si>
-    <t>c) may</t>
-  </si>
-  <si>
-    <t>d) should</t>
-  </si>
-  <si>
-    <t>a) He says, 'I can help you.'</t>
-  </si>
-  <si>
-    <t>b) He says, 'He can help you.'</t>
-  </si>
-  <si>
-    <t>c) He says, 'He could help you.'</t>
-  </si>
-  <si>
-    <t>d) He says, 'He helps you.'</t>
-  </si>
-  <si>
     <t>Which tense is used to express actions that occurred at a specific time in the past?</t>
   </si>
   <si>
@@ -791,12 +509,261 @@
   </si>
   <si>
     <t>He threw the bullet away.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Run</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The dogs is barking loudly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He says that he is going to the market.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> must</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> reads</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> She don't like ice cream.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> She asked if he could help her.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Much</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rides</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He says that he will come tomorrow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The cat is brown its sleeping.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Few</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> might</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He said, 'I will help you.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Several</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> She told me to help her with that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Many</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> go</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Will you come with me?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He says that he has finished his work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> does</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The birds is flying in the sky.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> will</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He says, 'I can help you.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The dog are barking loudly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He says that he was going to the market.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> read</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They doesn't know the answer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> She asked if he can help her.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Any</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is riding</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He says that he would come tomorrow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The cat is brown, it's sleeping.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> should</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He said, 'He will help you.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> She told me to help her with this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> went</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Please help me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He said that he had finished his work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> did</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The bird is fly in the sky.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Some</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He says, 'He can help you.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Beautiful</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The dogs are barking loudly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He says that he will go to the market.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is reading</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I am not understanding this concept.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> She asked if he will help her.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rode</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He said that he will come tomorrow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> need</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He said, 'He would help you.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Little</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> She asked me to help her with that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> goes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Don't touch that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He says that he had finished his work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> do</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The birds are flying in the sky.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> may</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He says, 'He could help you.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quickly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The dog is barking loudly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He said that he is going to the market.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> has read</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He plays football every evening.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> She asked if he would help her.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> has ridden</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He said that he would come tomorrow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The cat is brown it's sleeping.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> would</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He said, 'He helps you.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> She asked me to help her with this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is going</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Are you going home?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He said that he has finished his work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is doing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The bird are fly in the sky.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He says, 'He helps you.'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1636,20 +1603,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.88671875" style="1" customWidth="1"/>
-    <col min="2" max="5" width="25.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="71.85546875" style="1" customWidth="1"/>
+    <col min="2" max="5" width="25.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1669,7 +1636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1689,1004 +1656,1004 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>228</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>210</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>230</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>213</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>232</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>206</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>214</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>59</v>
+        <v>234</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>235</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>173</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>197</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>69</v>
+        <v>236</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>84</v>
+        <v>238</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>87</v>
+        <v>218</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>92</v>
+        <v>239</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>87</v>
+        <v>218</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>101</v>
+        <v>240</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>105</v>
+        <v>221</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>106</v>
+        <v>241</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>109</v>
+        <v>203</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>110</v>
+        <v>222</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>111</v>
+        <v>242</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>115</v>
+        <v>223</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>116</v>
+        <v>243</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>120</v>
+        <v>224</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>121</v>
+        <v>244</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>130</v>
+        <v>207</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>131</v>
+        <v>226</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>132</v>
+        <v>245</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>150</v>
+        <v>56</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>182</v>
+        <v>88</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>185</v>
+        <v>91</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>186</v>
+        <v>92</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>193</v>
+        <v>99</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>196</v>
+        <v>102</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>197</v>
+        <v>103</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>199</v>
+        <v>105</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>205</v>
+        <v>111</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>206</v>
+        <v>112</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>207</v>
+        <v>113</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>208</v>
+        <v>114</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>214</v>
+        <v>120</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>216</v>
+        <v>122</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>217</v>
+        <v>123</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>218</v>
+        <v>124</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>219</v>
+        <v>125</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>220</v>
+        <v>126</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>221</v>
+        <v>127</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>223</v>
+        <v>129</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>224</v>
+        <v>130</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>227</v>
+        <v>133</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>228</v>
+        <v>134</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>229</v>
+        <v>135</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>230</v>
+        <v>136</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>231</v>
+        <v>137</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>232</v>
+        <v>138</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>233</v>
+        <v>139</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>234</v>
+        <v>140</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>236</v>
+        <v>142</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>237</v>
+        <v>143</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>238</v>
+        <v>144</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>242</v>
+        <v>148</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>243</v>
+        <v>149</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>244</v>
+        <v>150</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>245</v>
+        <v>151</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>246</v>
+        <v>152</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>247</v>
+        <v>153</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>249</v>
+        <v>155</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>251</v>
+        <v>157</v>
       </c>
       <c r="F51" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>253</v>
+        <v>159</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>254</v>
+        <v>160</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
